--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>974822.977511744</v>
+        <v>1055277.793872431</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6000161.689057265</v>
+        <v>6000161.689057267</v>
       </c>
     </row>
     <row r="11">
@@ -667,64 +667,64 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>55.77504579759023</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13.07139570454007</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>40.47627913313511</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>150.3246234415776</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>158.5383251698113</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>163.7159004536991</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>169.9804588624397</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.2350166920997</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>63.01265906493294</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>119.4364635729388</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>221.7706201196427</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>175.1311939478778</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>243.2386572690347</v>
+      </c>
+      <c r="G14" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>276.1565137023554</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>58.04051375196651</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>76.5629478451842</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.46550985000066</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G17" t="n">
-        <v>276.1565137023554</v>
+        <v>20.75911149906594</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
-        <v>226.9987351008517</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>71.55324488639683</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>35.17604242756701</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.1311939478778</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>102.2133755837552</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>276.1565137023554</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>38.19053515138876</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.58657847014003</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>69.31585159621632</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>175.1311939478778</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>275.4238412503948</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>68.0949623083478</v>
       </c>
       <c r="I23" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H24" t="n">
         <v>107.4004677732277</v>
@@ -2450,7 +2450,7 @@
         <v>162.3842949358346</v>
       </c>
       <c r="T24" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9084462740043</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.65630942927564</v>
+        <v>88.13559345822719</v>
       </c>
     </row>
     <row r="25">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>21.24989211362185</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>166.4440780709522</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S26" t="n">
-        <v>171.3413189850846</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.9999812970856</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>231.2461538757127</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>9.359035026328634</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2651,7 +2651,7 @@
         <v>136.8428928972591</v>
       </c>
       <c r="H27" t="n">
-        <v>60.06083104945245</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U27" t="n">
         <v>225.9084462740043</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>105.5638234346618</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>166.4440780709522</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>164.9788571224278</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>134.966468256832</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>50.84527375183948</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2891,7 +2891,7 @@
         <v>107.4004677732277</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T30" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9084462740043</v>
       </c>
       <c r="V30" t="n">
-        <v>93.93985960542307</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>145.9297454933236</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>158.4218578960072</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>166.4440780709522</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>414.3670737191223</v>
       </c>
       <c r="H32" t="n">
-        <v>282.5895949660514</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>89.00100375659584</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>36.75466077467576</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>91.39182301746669</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I33" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>162.3842949358346</v>
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>12.49659271983034</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>166.6709401365531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>282.5895949660515</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>268.0877465105946</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>8.394010772255728</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S36" t="n">
         <v>162.3842949358346</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U36" t="n">
         <v>225.9084462740043</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>157.2108087125815</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.8560038185222</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>166.4440780709522</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>303.5546418510977</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>196.4149889123578</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>93.85146944528336</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S39" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.1468615877626</v>
@@ -3641,10 +3641,10 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>110.3494976029478</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.571272790944</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>158.4955995708086</v>
+        <v>46.98279849488731</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.1522977307185</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>126.9002040457905</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>16.7315174971511</v>
       </c>
       <c r="G41" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U41" t="n">
-        <v>126.4458611668172</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>164.3008082073279</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.8428928972591</v>
@@ -3872,10 +3872,10 @@
         <v>162.3842949358346</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>4.728060220965864</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>158.4218578960072</v>
       </c>
       <c r="S43" t="n">
-        <v>166.4440780709522</v>
+        <v>127.2983974129081</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>98.44559677179186</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>414.3670737191223</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>31.20004975402582</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,19 +4064,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8428928972591</v>
+        <v>91.47561627402848</v>
       </c>
       <c r="H45" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.885919218949939</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T45" t="n">
         <v>198.1468615877626</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>200.8294330837151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.2153985321831</v>
+        <v>75.61957320878872</v>
       </c>
       <c r="C3" t="n">
-        <v>171.2153985321831</v>
+        <v>75.61957320878872</v>
       </c>
       <c r="D3" t="n">
-        <v>171.2153985321831</v>
+        <v>75.61957320878872</v>
       </c>
       <c r="E3" t="n">
-        <v>171.2153985321831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>171.2153985321831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>32.48457311479865</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1910343172051</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X3" t="n">
-        <v>547.1910343172051</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.4307355522512</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="4">
@@ -4518,13 +4518,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4558,7 +4558,7 @@
         <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4612,7 +4612,7 @@
         <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="C6" t="n">
         <v>19.28114311021272</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>630.5000885675563</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>395.3479803358136</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>395.3479803358136</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4964801302808</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W9" t="n">
-        <v>570.4639408291474</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X9" t="n">
-        <v>570.4639408291474</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.7036420641935</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="10">
@@ -4989,7 +4989,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>508.1578098032604</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="C11" t="n">
-        <v>508.1578098032604</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="D11" t="n">
-        <v>508.1578098032604</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="E11" t="n">
-        <v>508.1578098032604</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="F11" t="n">
-        <v>508.1578098032604</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="G11" t="n">
-        <v>229.2118363665377</v>
+        <v>250.6127399770972</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
         <v>989.7620250901062</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="U11" t="n">
-        <v>850.7529338106224</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="V11" t="n">
-        <v>571.8069603738998</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="W11" t="n">
-        <v>508.1578098032604</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="X11" t="n">
-        <v>508.1578098032604</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="Y11" t="n">
-        <v>508.1578098032604</v>
+        <v>529.5587134138199</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618843</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618843</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618843</v>
+        <v>666.8334156301844</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318533</v>
       </c>
       <c r="K12" t="n">
         <v>165.799003153448</v>
@@ -5132,13 +5132,13 @@
         <v>439.1939517187798</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288495</v>
+        <v>712.5889002841117</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121333</v>
+        <v>979.0857138673955</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5150,22 +5150,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435694</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="V12" t="n">
-        <v>652.3967150499909</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="W12" t="n">
-        <v>398.1593583217893</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="X12" t="n">
-        <v>190.3078581162565</v>
+        <v>983.9831623115037</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.3078581162565</v>
+        <v>983.9831623115037</v>
       </c>
     </row>
     <row r="13">
@@ -5211,37 +5211,37 @@
         <v>107.6904745160686</v>
       </c>
       <c r="N13" t="n">
-        <v>160.9488293168851</v>
+        <v>160.948829316885</v>
       </c>
       <c r="O13" t="n">
         <v>194.1252445754622</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031357</v>
       </c>
       <c r="Y13" t="n">
         <v>22.09252109618843</v>
@@ -5263,13 +5263,13 @@
         <v>546.7341079359765</v>
       </c>
       <c r="E14" t="n">
-        <v>267.7881344992538</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F14" t="n">
-        <v>267.7881344992538</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G14" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H14" t="n">
         <v>22.09252109618843</v>
@@ -5278,13 +5278,13 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K14" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M14" t="n">
         <v>586.3582880173956</v>
@@ -5293,7 +5293,7 @@
         <v>817.0829279823541</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5320,10 +5320,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X14" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="Y14" t="n">
         <v>825.6800813726991</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>309.6816665288935</v>
+        <v>414.4097869504139</v>
       </c>
       <c r="C15" t="n">
-        <v>309.6816665288935</v>
+        <v>239.9567576692869</v>
       </c>
       <c r="D15" t="n">
-        <v>160.7472568676422</v>
+        <v>181.3299761016439</v>
       </c>
       <c r="E15" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F15" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G15" t="n">
         <v>22.09252109618843</v>
@@ -5366,10 +5366,10 @@
         <v>411.954469746149</v>
       </c>
       <c r="M15" t="n">
-        <v>685.3494183114808</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="N15" t="n">
-        <v>907.7419348121333</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O15" t="n">
         <v>907.7419348121333</v>
@@ -5381,28 +5381,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R15" t="n">
-        <v>1027.28974385469</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>1027.28974385469</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>1027.28974385469</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U15" t="n">
-        <v>799.0711314888379</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V15" t="n">
-        <v>563.9190232570952</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="W15" t="n">
-        <v>309.6816665288935</v>
+        <v>622.1700857153678</v>
       </c>
       <c r="X15" t="n">
-        <v>309.6816665288935</v>
+        <v>622.1700857153678</v>
       </c>
       <c r="Y15" t="n">
-        <v>309.6816665288935</v>
+        <v>414.4097869504139</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618843</v>
+        <v>185.391191902125</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618843</v>
+        <v>185.391191902125</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618843</v>
+        <v>185.391191902125</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618843</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H16" t="n">
         <v>22.09252109618843</v>
@@ -5475,13 +5475,13 @@
         <v>198.9927170031358</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>508.1578098032604</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="C17" t="n">
-        <v>508.1578098032604</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="D17" t="n">
-        <v>508.1578098032604</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="E17" t="n">
-        <v>508.1578098032604</v>
+        <v>322.0072940269171</v>
       </c>
       <c r="F17" t="n">
-        <v>508.1578098032604</v>
+        <v>43.06132059019444</v>
       </c>
       <c r="G17" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H17" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I17" t="n">
         <v>22.09252109618843</v>
@@ -5521,7 +5521,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M17" t="n">
         <v>586.3582880173956</v>
@@ -5539,28 +5539,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S17" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T17" t="n">
-        <v>737.4494614202823</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U17" t="n">
-        <v>508.1578098032604</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="V17" t="n">
-        <v>508.1578098032604</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="W17" t="n">
-        <v>508.1578098032604</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="X17" t="n">
-        <v>508.1578098032604</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="Y17" t="n">
-        <v>508.1578098032604</v>
+        <v>879.8992409003624</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>335.2002861487692</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="C18" t="n">
-        <v>160.7472568676422</v>
+        <v>171.0269307574397</v>
       </c>
       <c r="D18" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E18" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F18" t="n">
-        <v>160.7472568676422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G18" t="n">
         <v>22.09252109618843</v>
@@ -5597,22 +5597,22 @@
         <v>28.39914141318534</v>
       </c>
       <c r="K18" t="n">
-        <v>45.18387750277338</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L18" t="n">
-        <v>291.3393440954744</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M18" t="n">
-        <v>564.7342926608062</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="N18" t="n">
-        <v>838.129241226138</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.626054809422</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q18" t="n">
         <v>1104.626054809422</v>
@@ -5621,25 +5621,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S18" t="n">
-        <v>1032.350049873667</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T18" t="n">
-        <v>1032.350049873667</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U18" t="n">
-        <v>1032.350049873667</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V18" t="n">
-        <v>797.1979416419247</v>
+        <v>840.876086456128</v>
       </c>
       <c r="W18" t="n">
-        <v>542.9605849137231</v>
+        <v>586.6387297279264</v>
       </c>
       <c r="X18" t="n">
-        <v>542.9605849137231</v>
+        <v>378.7872295223936</v>
       </c>
       <c r="Y18" t="n">
-        <v>335.2002861487692</v>
+        <v>171.0269307574397</v>
       </c>
     </row>
     <row r="19">
@@ -5679,7 +5679,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M19" t="n">
         <v>107.6904745160686</v>
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.1762753293416</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="C20" t="n">
-        <v>683.2303018926189</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="D20" t="n">
-        <v>404.2843284558962</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="E20" t="n">
-        <v>404.2843284558962</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="F20" t="n">
-        <v>301.0384945329111</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="G20" t="n">
-        <v>22.09252109618843</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I20" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618845</v>
       </c>
       <c r="K20" t="n">
         <v>142.8373253438683</v>
@@ -5776,28 +5776,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V20" t="n">
-        <v>962.1762753293416</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="W20" t="n">
-        <v>962.1762753293416</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="X20" t="n">
-        <v>962.1762753293416</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="Y20" t="n">
-        <v>962.1762753293416</v>
+        <v>787.1037832399832</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>196.5455503773155</v>
+        <v>556.6464062755783</v>
       </c>
       <c r="C21" t="n">
-        <v>22.09252109618843</v>
+        <v>382.1933769944513</v>
       </c>
       <c r="D21" t="n">
-        <v>22.09252109618843</v>
+        <v>382.1933769944513</v>
       </c>
       <c r="E21" t="n">
-        <v>22.09252109618843</v>
+        <v>222.9559219889958</v>
       </c>
       <c r="F21" t="n">
-        <v>22.09252109618843</v>
+        <v>222.9559219889958</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618843</v>
+        <v>84.30118621754201</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618843</v>
+        <v>84.30118621754201</v>
       </c>
       <c r="I21" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618843</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L21" t="n">
-        <v>268.2479876888894</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M21" t="n">
-        <v>541.6429362542212</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="N21" t="n">
-        <v>815.037884819553</v>
+        <v>562.3310704112776</v>
       </c>
       <c r="O21" t="n">
-        <v>1081.534698402837</v>
+        <v>828.8278839945614</v>
       </c>
       <c r="P21" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
@@ -5858,25 +5858,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="T21" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="U21" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="V21" t="n">
-        <v>1034.610043096072</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="W21" t="n">
-        <v>780.3726863678703</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="X21" t="n">
-        <v>572.5211861623375</v>
+        <v>932.6220420606003</v>
       </c>
       <c r="Y21" t="n">
-        <v>364.7608873973835</v>
+        <v>724.8617432956464</v>
       </c>
     </row>
     <row r="22">
@@ -5916,7 +5916,7 @@
         <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M22" t="n">
         <v>107.6904745160686</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1710.165868918114</v>
+        <v>1633.253009984676</v>
       </c>
       <c r="C23" t="n">
-        <v>1710.165868918114</v>
+        <v>1264.290493044264</v>
       </c>
       <c r="D23" t="n">
-        <v>1431.95996866519</v>
+        <v>906.0247944375139</v>
       </c>
       <c r="E23" t="n">
-        <v>1046.171716066946</v>
+        <v>520.2365418392696</v>
       </c>
       <c r="F23" t="n">
-        <v>635.1858112773382</v>
+        <v>109.2506370496621</v>
       </c>
       <c r="G23" t="n">
-        <v>216.6332115610531</v>
+        <v>109.2506370496621</v>
       </c>
       <c r="H23" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I23" t="n">
         <v>40.46784683920976</v>
@@ -5992,13 +5992,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K23" t="n">
-        <v>328.1019626009681</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L23" t="n">
         <v>654.356031030014</v>
       </c>
       <c r="M23" t="n">
-        <v>1033.983090059324</v>
+        <v>1033.983090059323</v>
       </c>
       <c r="N23" t="n">
         <v>1405.120914245785</v>
@@ -6007,34 +6007,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P23" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q23" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R23" t="n">
-        <v>1931.377971238403</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S23" t="n">
-        <v>1931.377971238403</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T23" t="n">
-        <v>1710.165868918114</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U23" t="n">
-        <v>1710.165868918114</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="V23" t="n">
-        <v>1710.165868918114</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="W23" t="n">
-        <v>1710.165868918114</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="X23" t="n">
-        <v>1710.165868918114</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Y23" t="n">
-        <v>1710.165868918114</v>
+        <v>1633.253009984676</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>851.0017381306133</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="C24" t="n">
-        <v>676.5487088494863</v>
+        <v>814.7738531901521</v>
       </c>
       <c r="D24" t="n">
-        <v>527.614299188235</v>
+        <v>665.8394435289008</v>
       </c>
       <c r="E24" t="n">
-        <v>368.3768441827795</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F24" t="n">
-        <v>221.8422862096645</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G24" t="n">
         <v>221.8422862096645</v>
@@ -6068,25 +6068,25 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J24" t="n">
-        <v>86.55375581100979</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K24" t="n">
-        <v>291.9427578142076</v>
+        <v>122.5224875632326</v>
       </c>
       <c r="L24" t="n">
-        <v>629.5180138714659</v>
+        <v>460.0977436204909</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.431636934412</v>
+        <v>906.0113666834374</v>
       </c>
       <c r="N24" t="n">
-        <v>1524.059027874544</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O24" t="n">
-        <v>1890.732577526585</v>
+        <v>1746.107559530962</v>
       </c>
       <c r="P24" t="n">
-        <v>1890.732577526585</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q24" t="n">
         <v>2023.392341960488</v>
@@ -6098,22 +6098,22 @@
         <v>1789.594856919893</v>
       </c>
       <c r="T24" t="n">
-        <v>1589.446511881749</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="U24" t="n">
-        <v>1361.256162110028</v>
+        <v>1561.404507148172</v>
       </c>
       <c r="V24" t="n">
-        <v>1126.104053878285</v>
+        <v>1326.252398916429</v>
       </c>
       <c r="W24" t="n">
-        <v>871.8666971500836</v>
+        <v>1072.015042188227</v>
       </c>
       <c r="X24" t="n">
-        <v>871.8666971500836</v>
+        <v>1072.015042188227</v>
       </c>
       <c r="Y24" t="n">
-        <v>851.0017381306133</v>
+        <v>982.9891902102202</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.46784683920976</v>
+        <v>208.822331825627</v>
       </c>
       <c r="C25" t="n">
-        <v>40.46784683920976</v>
+        <v>208.822331825627</v>
       </c>
       <c r="D25" t="n">
-        <v>40.46784683920976</v>
+        <v>208.822331825627</v>
       </c>
       <c r="E25" t="n">
-        <v>40.46784683920976</v>
+        <v>187.3577943371201</v>
       </c>
       <c r="F25" t="n">
         <v>40.46784683920976</v>
@@ -6180,19 +6180,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U25" t="n">
-        <v>329.8850168761704</v>
+        <v>208.822331825627</v>
       </c>
       <c r="V25" t="n">
-        <v>329.8850168761704</v>
+        <v>208.822331825627</v>
       </c>
       <c r="W25" t="n">
-        <v>40.46784683920976</v>
+        <v>208.822331825627</v>
       </c>
       <c r="X25" t="n">
-        <v>40.46784683920976</v>
+        <v>208.822331825627</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.46784683920976</v>
+        <v>208.822331825627</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1238.968868285514</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="C26" t="n">
         <v>870.0063513451025</v>
@@ -6229,10 +6229,10 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K26" t="n">
-        <v>328.1019626009681</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M26" t="n">
         <v>1033.983090059323</v>
@@ -6250,28 +6250,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R26" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S26" t="n">
-        <v>1850.320302581614</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T26" t="n">
-        <v>1629.108200261326</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U26" t="n">
-        <v>1629.108200261326</v>
+        <v>1456.356980227048</v>
       </c>
       <c r="V26" t="n">
-        <v>1629.108200261326</v>
+        <v>1456.356980227048</v>
       </c>
       <c r="W26" t="n">
-        <v>1629.108200261326</v>
+        <v>1103.588324956934</v>
       </c>
       <c r="X26" t="n">
-        <v>1629.108200261326</v>
+        <v>870.0063513451025</v>
       </c>
       <c r="Y26" t="n">
-        <v>1238.968868285514</v>
+        <v>870.0063513451025</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>721.9853912382673</v>
+        <v>521.8370462001233</v>
       </c>
       <c r="C27" t="n">
-        <v>547.5323619571403</v>
+        <v>347.3840169189963</v>
       </c>
       <c r="D27" t="n">
-        <v>398.5979522958891</v>
+        <v>337.930446185331</v>
       </c>
       <c r="E27" t="n">
-        <v>239.3604972904336</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="F27" t="n">
-        <v>239.3604972904336</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="G27" t="n">
-        <v>101.1353529497678</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H27" t="n">
         <v>40.46784683920976</v>
@@ -6308,22 +6308,22 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K27" t="n">
-        <v>245.8568488424076</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L27" t="n">
-        <v>583.4321048996659</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M27" t="n">
-        <v>1029.345727962612</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N27" t="n">
-        <v>1379.434009878921</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.107559530962</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P27" t="n">
-        <v>2023.392341960488</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q27" t="n">
         <v>2023.392341960488</v>
@@ -6335,22 +6335,22 @@
         <v>2023.392341960488</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.392341960488</v>
+        <v>1823.243996922344</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.201992188766</v>
+        <v>1595.053647150622</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.049883957024</v>
+        <v>1359.90153891888</v>
       </c>
       <c r="W27" t="n">
-        <v>1305.812527228822</v>
+        <v>1105.664182190678</v>
       </c>
       <c r="X27" t="n">
-        <v>1097.961027023289</v>
+        <v>897.8126819851452</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.2007282583354</v>
+        <v>690.0523832201914</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>316.3618834307308</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C28" t="n">
-        <v>316.3618834307308</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D28" t="n">
-        <v>316.3618834307308</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E28" t="n">
-        <v>316.3618834307308</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F28" t="n">
-        <v>316.3618834307308</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G28" t="n">
-        <v>147.0979715206863</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H28" t="n">
         <v>40.46784683920976</v>
@@ -6417,19 +6417,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U28" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V28" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W28" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y28" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>983.9314553869199</v>
+        <v>1339.560799346803</v>
       </c>
       <c r="C29" t="n">
-        <v>983.9314553869199</v>
+        <v>1339.560799346803</v>
       </c>
       <c r="D29" t="n">
-        <v>625.6657567801694</v>
+        <v>1339.560799346803</v>
       </c>
       <c r="E29" t="n">
-        <v>459.0204465554949</v>
+        <v>1339.560799346803</v>
       </c>
       <c r="F29" t="n">
-        <v>459.0204465554949</v>
+        <v>928.5748945571956</v>
       </c>
       <c r="G29" t="n">
-        <v>40.46784683920976</v>
+        <v>510.0222948409105</v>
       </c>
       <c r="H29" t="n">
-        <v>40.46784683920976</v>
+        <v>176.7976127552017</v>
       </c>
       <c r="I29" t="n">
         <v>40.46784683920976</v>
@@ -6466,13 +6466,13 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K29" t="n">
-        <v>328.1019626009682</v>
+        <v>328.1019626009681</v>
       </c>
       <c r="L29" t="n">
         <v>654.356031030014</v>
       </c>
       <c r="M29" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N29" t="n">
         <v>1405.120914245785</v>
@@ -6481,34 +6481,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P29" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q29" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R29" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S29" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T29" t="n">
-        <v>1710.165868918114</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U29" t="n">
-        <v>1710.165868918114</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="V29" t="n">
-        <v>1710.165868918114</v>
+        <v>1692.329454616917</v>
       </c>
       <c r="W29" t="n">
-        <v>1357.397213648</v>
+        <v>1339.560799346803</v>
       </c>
       <c r="X29" t="n">
-        <v>983.9314553869199</v>
+        <v>1339.560799346803</v>
       </c>
       <c r="Y29" t="n">
-        <v>983.9314553869199</v>
+        <v>1339.560799346803</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>916.3377640838827</v>
+        <v>557.9608508990407</v>
       </c>
       <c r="C30" t="n">
-        <v>741.8847348027557</v>
+        <v>557.9608508990407</v>
       </c>
       <c r="D30" t="n">
-        <v>592.9503251415044</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="E30" t="n">
-        <v>433.7128701360489</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F30" t="n">
-        <v>287.1783121629338</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9531678222681</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H30" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I30" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J30" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K30" t="n">
-        <v>291.9427578142076</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L30" t="n">
-        <v>629.5180138714659</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.431636934412</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.854280129896</v>
+        <v>1502.768371158096</v>
       </c>
       <c r="O30" t="n">
-        <v>1915.527829781937</v>
+        <v>1869.441920810137</v>
       </c>
       <c r="P30" t="n">
         <v>2023.392341960488</v>
@@ -6569,25 +6569,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S30" t="n">
-        <v>2023.392341960488</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T30" t="n">
-        <v>1823.243996922344</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="U30" t="n">
-        <v>1595.053647150622</v>
+        <v>1631.17745184954</v>
       </c>
       <c r="V30" t="n">
-        <v>1500.164900074437</v>
+        <v>1396.025343617797</v>
       </c>
       <c r="W30" t="n">
-        <v>1500.164900074437</v>
+        <v>1141.787986889595</v>
       </c>
       <c r="X30" t="n">
-        <v>1292.313399868905</v>
+        <v>933.9364866840626</v>
       </c>
       <c r="Y30" t="n">
-        <v>1084.553101103951</v>
+        <v>726.1761879191088</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.46784683920976</v>
+        <v>337.988269578135</v>
       </c>
       <c r="C31" t="n">
-        <v>40.46784683920976</v>
+        <v>337.988269578135</v>
       </c>
       <c r="D31" t="n">
-        <v>40.46784683920976</v>
+        <v>187.8716301657992</v>
       </c>
       <c r="E31" t="n">
         <v>40.46784683920976</v>
@@ -6645,28 +6645,28 @@
         <v>498.0103482609705</v>
       </c>
       <c r="R31" t="n">
-        <v>498.0103482609705</v>
+        <v>337.988269578135</v>
       </c>
       <c r="S31" t="n">
-        <v>498.0103482609705</v>
+        <v>337.988269578135</v>
       </c>
       <c r="T31" t="n">
-        <v>498.0103482609705</v>
+        <v>337.988269578135</v>
       </c>
       <c r="U31" t="n">
-        <v>329.8850168761704</v>
+        <v>337.988269578135</v>
       </c>
       <c r="V31" t="n">
-        <v>329.8850168761704</v>
+        <v>337.988269578135</v>
       </c>
       <c r="W31" t="n">
-        <v>40.46784683920976</v>
+        <v>337.988269578135</v>
       </c>
       <c r="X31" t="n">
-        <v>40.46784683920976</v>
+        <v>337.988269578135</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.46784683920976</v>
+        <v>337.988269578135</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1541.238639262591</v>
+        <v>959.9063551396437</v>
       </c>
       <c r="C32" t="n">
-        <v>1541.238639262591</v>
+        <v>959.9063551396437</v>
       </c>
       <c r="D32" t="n">
-        <v>1541.238639262591</v>
+        <v>959.9063551396437</v>
       </c>
       <c r="E32" t="n">
-        <v>1155.450386664346</v>
+        <v>959.9063551396437</v>
       </c>
       <c r="F32" t="n">
-        <v>744.4644818747388</v>
+        <v>548.9204503500362</v>
       </c>
       <c r="G32" t="n">
-        <v>325.9118821584536</v>
+        <v>130.367850633751</v>
       </c>
       <c r="H32" t="n">
-        <v>40.46784683920976</v>
+        <v>130.367850633751</v>
       </c>
       <c r="I32" t="n">
         <v>40.46784683920976</v>
@@ -6733,19 +6733,19 @@
         <v>1931.377971238402</v>
       </c>
       <c r="U32" t="n">
-        <v>1931.377971238402</v>
+        <v>1677.569082547336</v>
       </c>
       <c r="V32" t="n">
-        <v>1931.377971238402</v>
+        <v>1346.506195203765</v>
       </c>
       <c r="W32" t="n">
-        <v>1931.377971238402</v>
+        <v>1346.506195203765</v>
       </c>
       <c r="X32" t="n">
-        <v>1931.377971238402</v>
+        <v>1346.506195203765</v>
       </c>
       <c r="Y32" t="n">
-        <v>1541.238639262591</v>
+        <v>1346.506195203765</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456.2548981795966</v>
+        <v>526.0278428809647</v>
       </c>
       <c r="C33" t="n">
-        <v>419.1289782051767</v>
+        <v>526.0278428809647</v>
       </c>
       <c r="D33" t="n">
-        <v>419.1289782051767</v>
+        <v>526.0278428809647</v>
       </c>
       <c r="E33" t="n">
-        <v>259.8915231997212</v>
+        <v>433.7128701360489</v>
       </c>
       <c r="F33" t="n">
-        <v>113.3569652266061</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G33" t="n">
-        <v>113.3569652266061</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H33" t="n">
-        <v>113.3569652266061</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I33" t="n">
         <v>40.46784683920976</v>
@@ -6782,19 +6782,19 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K33" t="n">
-        <v>122.5224875632326</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L33" t="n">
-        <v>460.0977436204909</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M33" t="n">
-        <v>906.0113666834374</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N33" t="n">
-        <v>1379.434009878921</v>
+        <v>1502.768371158096</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.107559530962</v>
+        <v>1869.441920810137</v>
       </c>
       <c r="P33" t="n">
         <v>2023.392341960488</v>
@@ -6803,28 +6803,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R33" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S33" t="n">
-        <v>1789.594856919893</v>
+        <v>1859.367801621261</v>
       </c>
       <c r="T33" t="n">
-        <v>1589.446511881749</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U33" t="n">
-        <v>1361.256162110028</v>
+        <v>1431.029106811396</v>
       </c>
       <c r="V33" t="n">
-        <v>1126.104053878285</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W33" t="n">
-        <v>871.8666971500834</v>
+        <v>941.6396418514514</v>
       </c>
       <c r="X33" t="n">
-        <v>664.0151969445506</v>
+        <v>733.7881416459186</v>
       </c>
       <c r="Y33" t="n">
-        <v>456.2548981795966</v>
+        <v>526.0278428809647</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.46784683920976</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="C34" t="n">
-        <v>40.46784683920976</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="D34" t="n">
-        <v>40.46784683920976</v>
+        <v>347.8937088486348</v>
       </c>
       <c r="E34" t="n">
-        <v>40.46784683920976</v>
+        <v>199.9806152662417</v>
       </c>
       <c r="F34" t="n">
-        <v>40.46784683920976</v>
+        <v>53.09066776833131</v>
       </c>
       <c r="G34" t="n">
         <v>40.46784683920976</v>
@@ -6891,19 +6891,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U34" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V34" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W34" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="X34" t="n">
-        <v>208.822331825627</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.46784683920976</v>
+        <v>498.0103482609705</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1255.794603943347</v>
+        <v>873.2171677053525</v>
       </c>
       <c r="C35" t="n">
-        <v>1255.794603943347</v>
+        <v>873.2171677053525</v>
       </c>
       <c r="D35" t="n">
-        <v>1255.794603943347</v>
+        <v>873.2171677053525</v>
       </c>
       <c r="E35" t="n">
-        <v>870.0063513451025</v>
+        <v>487.4289151071083</v>
       </c>
       <c r="F35" t="n">
-        <v>459.0204465554949</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="G35" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H35" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I35" t="n">
         <v>40.46784683920976</v>
@@ -6940,7 +6940,7 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K35" t="n">
-        <v>328.1019626009682</v>
+        <v>328.1019626009681</v>
       </c>
       <c r="L35" t="n">
         <v>654.356031030014</v>
@@ -6961,28 +6961,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R35" t="n">
-        <v>1931.377971238403</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S35" t="n">
-        <v>1931.377971238403</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="T35" t="n">
-        <v>1931.377971238403</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="U35" t="n">
-        <v>1931.377971238403</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="V35" t="n">
-        <v>1931.377971238403</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="W35" t="n">
-        <v>1931.377971238403</v>
+        <v>1259.817007769474</v>
       </c>
       <c r="X35" t="n">
-        <v>1931.377971238403</v>
+        <v>1259.817007769474</v>
       </c>
       <c r="Y35" t="n">
-        <v>1541.238639262591</v>
+        <v>1259.817007769474</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>814.7738531901521</v>
+        <v>664.0151969445508</v>
       </c>
       <c r="C36" t="n">
-        <v>814.7738531901521</v>
+        <v>655.5363981846965</v>
       </c>
       <c r="D36" t="n">
-        <v>665.8394435289008</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="E36" t="n">
         <v>506.6019885234452</v>
@@ -7016,52 +7016,52 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J36" t="n">
-        <v>86.55375581100979</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K36" t="n">
-        <v>291.9427578142076</v>
+        <v>122.522487563233</v>
       </c>
       <c r="L36" t="n">
-        <v>629.5180138714659</v>
+        <v>460.0977436204913</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.431636934412</v>
+        <v>906.0113666834378</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.774245445018</v>
+        <v>1379.434009878921</v>
       </c>
       <c r="O36" t="n">
-        <v>1613.447795097059</v>
+        <v>1746.107559530963</v>
       </c>
       <c r="P36" t="n">
-        <v>1890.732577526585</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q36" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R36" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S36" t="n">
-        <v>1859.367801621261</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T36" t="n">
-        <v>1859.367801621261</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U36" t="n">
-        <v>1631.17745184954</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V36" t="n">
-        <v>1396.025343617797</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W36" t="n">
-        <v>1141.787986889595</v>
+        <v>871.8666971500836</v>
       </c>
       <c r="X36" t="n">
-        <v>982.9891902102202</v>
+        <v>664.0151969445508</v>
       </c>
       <c r="Y36" t="n">
-        <v>982.9891902102202</v>
+        <v>664.0151969445508</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.46784683920976</v>
+        <v>350.6810514745845</v>
       </c>
       <c r="C37" t="n">
-        <v>40.46784683920976</v>
+        <v>350.6810514745845</v>
       </c>
       <c r="D37" t="n">
-        <v>40.46784683920976</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="E37" t="n">
-        <v>40.46784683920976</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="F37" t="n">
-        <v>40.46784683920976</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="G37" t="n">
-        <v>40.46784683920976</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="H37" t="n">
         <v>40.46784683920976</v>
@@ -7122,25 +7122,25 @@
         <v>498.0103482609705</v>
       </c>
       <c r="S37" t="n">
-        <v>498.0103482609705</v>
+        <v>350.6810514745845</v>
       </c>
       <c r="T37" t="n">
-        <v>498.0103482609705</v>
+        <v>350.6810514745845</v>
       </c>
       <c r="U37" t="n">
-        <v>329.8850168761704</v>
+        <v>350.6810514745845</v>
       </c>
       <c r="V37" t="n">
-        <v>329.8850168761704</v>
+        <v>350.6810514745845</v>
       </c>
       <c r="W37" t="n">
-        <v>40.46784683920976</v>
+        <v>350.6810514745845</v>
       </c>
       <c r="X37" t="n">
-        <v>40.46784683920976</v>
+        <v>350.6810514745845</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.46784683920976</v>
+        <v>350.6810514745845</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>767.696062386372</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="C38" t="n">
-        <v>398.7335454459603</v>
+        <v>1562.415454297991</v>
       </c>
       <c r="D38" t="n">
-        <v>40.46784683920976</v>
+        <v>1562.415454297991</v>
       </c>
       <c r="E38" t="n">
-        <v>40.46784683920976</v>
+        <v>1176.627201699747</v>
       </c>
       <c r="F38" t="n">
-        <v>40.46784683920976</v>
+        <v>765.6412969101391</v>
       </c>
       <c r="G38" t="n">
-        <v>40.46784683920976</v>
+        <v>347.0886971938539</v>
       </c>
       <c r="H38" t="n">
         <v>40.46784683920976</v>
@@ -7180,10 +7180,10 @@
         <v>328.1019626009681</v>
       </c>
       <c r="L38" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M38" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N38" t="n">
         <v>1405.120914245785</v>
@@ -7192,34 +7192,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P38" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q38" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R38" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S38" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="T38" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="U38" t="n">
-        <v>1824.993363261136</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="V38" t="n">
-        <v>1493.930475917566</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="W38" t="n">
-        <v>1141.161820647452</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="X38" t="n">
-        <v>767.696062386372</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="Y38" t="n">
-        <v>767.696062386372</v>
+        <v>1931.377971238403</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>456.2548981795966</v>
+        <v>829.9894274658235</v>
       </c>
       <c r="C39" t="n">
-        <v>281.8018688984696</v>
+        <v>655.5363981846965</v>
       </c>
       <c r="D39" t="n">
-        <v>187.0024048123248</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="E39" t="n">
-        <v>187.0024048123248</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F39" t="n">
-        <v>40.46784683920976</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G39" t="n">
-        <v>40.46784683920976</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H39" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I39" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J39" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K39" t="n">
-        <v>122.5224875632326</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L39" t="n">
-        <v>460.0977436204909</v>
+        <v>629.5180138714659</v>
       </c>
       <c r="M39" t="n">
-        <v>906.0113666834374</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N39" t="n">
-        <v>1379.434009878921</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O39" t="n">
-        <v>1746.107559530962</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P39" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q39" t="n">
         <v>2023.392341960488</v>
@@ -7280,25 +7280,25 @@
         <v>1953.61939725912</v>
       </c>
       <c r="S39" t="n">
-        <v>1789.594856919893</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="T39" t="n">
-        <v>1589.446511881749</v>
+        <v>1753.471052220976</v>
       </c>
       <c r="U39" t="n">
-        <v>1361.256162110028</v>
+        <v>1525.280702449255</v>
       </c>
       <c r="V39" t="n">
-        <v>1126.104053878285</v>
+        <v>1525.280702449255</v>
       </c>
       <c r="W39" t="n">
-        <v>871.8666971500834</v>
+        <v>1413.816563456378</v>
       </c>
       <c r="X39" t="n">
-        <v>664.0151969445506</v>
+        <v>1205.965063250845</v>
       </c>
       <c r="Y39" t="n">
-        <v>456.2548981795966</v>
+        <v>998.2047644858915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>369.8283239722932</v>
+        <v>87.92521905626765</v>
       </c>
       <c r="C40" t="n">
-        <v>369.8283239722932</v>
+        <v>87.92521905626765</v>
       </c>
       <c r="D40" t="n">
-        <v>369.8283239722932</v>
+        <v>87.92521905626765</v>
       </c>
       <c r="E40" t="n">
-        <v>369.8283239722932</v>
+        <v>87.92521905626765</v>
       </c>
       <c r="F40" t="n">
-        <v>369.8283239722932</v>
+        <v>87.92521905626765</v>
       </c>
       <c r="G40" t="n">
-        <v>200.5644120622488</v>
+        <v>87.92521905626765</v>
       </c>
       <c r="H40" t="n">
         <v>40.46784683920976</v>
@@ -7362,22 +7362,22 @@
         <v>498.0103482609705</v>
       </c>
       <c r="T40" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865074</v>
       </c>
       <c r="U40" t="n">
-        <v>498.0103482609705</v>
+        <v>269.5736838865074</v>
       </c>
       <c r="V40" t="n">
-        <v>369.8283239722932</v>
+        <v>269.5736838865074</v>
       </c>
       <c r="W40" t="n">
-        <v>369.8283239722932</v>
+        <v>269.5736838865074</v>
       </c>
       <c r="X40" t="n">
-        <v>369.8283239722932</v>
+        <v>269.5736838865074</v>
       </c>
       <c r="Y40" t="n">
-        <v>369.8283239722932</v>
+        <v>269.5736838865074</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.060302550097</v>
+        <v>985.3110160874421</v>
       </c>
       <c r="C41" t="n">
-        <v>1614.060302550097</v>
+        <v>985.3110160874421</v>
       </c>
       <c r="D41" t="n">
-        <v>1255.794603943347</v>
+        <v>985.3110160874421</v>
       </c>
       <c r="E41" t="n">
-        <v>870.0063513451025</v>
+        <v>985.3110160874421</v>
       </c>
       <c r="F41" t="n">
-        <v>459.0204465554949</v>
+        <v>968.4104933630471</v>
       </c>
       <c r="G41" t="n">
-        <v>40.46784683920976</v>
+        <v>549.8578936467619</v>
       </c>
       <c r="H41" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I41" t="n">
         <v>40.46784683920976</v>
@@ -7414,10 +7414,10 @@
         <v>107.2572125339111</v>
       </c>
       <c r="K41" t="n">
-        <v>328.1019626009681</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L41" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M41" t="n">
         <v>1033.983090059323</v>
@@ -7429,34 +7429,34 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P41" t="n">
-        <v>1933.252382068734</v>
+        <v>1933.252382068733</v>
       </c>
       <c r="Q41" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R41" t="n">
-        <v>1931.377971238403</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S41" t="n">
-        <v>1741.783394637791</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="T41" t="n">
-        <v>1741.783394637791</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="U41" t="n">
-        <v>1614.060302550097</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="V41" t="n">
-        <v>1614.060302550097</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="W41" t="n">
-        <v>1614.060302550097</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="X41" t="n">
-        <v>1614.060302550097</v>
+        <v>985.3110160874421</v>
       </c>
       <c r="Y41" t="n">
-        <v>1614.060302550097</v>
+        <v>985.3110160874421</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>989.2268824712791</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="C42" t="n">
-        <v>814.7738531901521</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="D42" t="n">
-        <v>665.8394435289008</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="E42" t="n">
-        <v>506.6019885234452</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="F42" t="n">
         <v>360.0674305503302</v>
@@ -7493,22 +7493,22 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K42" t="n">
-        <v>122.522487563233</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L42" t="n">
-        <v>460.0977436204913</v>
+        <v>378.043102896468</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0113666834378</v>
+        <v>823.9567259594146</v>
       </c>
       <c r="N42" t="n">
-        <v>1379.434009878921</v>
+        <v>1297.379369154898</v>
       </c>
       <c r="O42" t="n">
-        <v>1746.107559530963</v>
+        <v>1664.052918806939</v>
       </c>
       <c r="P42" t="n">
-        <v>2023.392341960488</v>
+        <v>1941.337701236465</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
@@ -7520,22 +7520,22 @@
         <v>1859.367801621261</v>
       </c>
       <c r="T42" t="n">
-        <v>1859.367801621261</v>
+        <v>1659.219456583117</v>
       </c>
       <c r="U42" t="n">
-        <v>1859.367801621261</v>
+        <v>1431.029106811395</v>
       </c>
       <c r="V42" t="n">
-        <v>1624.215693389518</v>
+        <v>1195.876998579653</v>
       </c>
       <c r="W42" t="n">
-        <v>1369.978336661317</v>
+        <v>941.6396418514512</v>
       </c>
       <c r="X42" t="n">
-        <v>1365.202518256301</v>
+        <v>733.7881416459184</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.442219491347</v>
+        <v>526.0278428809645</v>
       </c>
     </row>
     <row r="43">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.46784683920976</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="C43" t="n">
         <v>40.46784683920976</v>
@@ -7572,16 +7572,16 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K43" t="n">
-        <v>66.69569932712994</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L43" t="n">
-        <v>155.784755181066</v>
+        <v>155.7847551810659</v>
       </c>
       <c r="M43" t="n">
         <v>260.1057964661965</v>
       </c>
       <c r="N43" t="n">
-        <v>367.3809329804119</v>
+        <v>367.3809329804118</v>
       </c>
       <c r="O43" t="n">
         <v>450.4505890207823</v>
@@ -7593,28 +7593,28 @@
         <v>498.0103482609705</v>
       </c>
       <c r="R43" t="n">
-        <v>498.0103482609705</v>
+        <v>337.9882695781349</v>
       </c>
       <c r="S43" t="n">
-        <v>329.8850168761704</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="T43" t="n">
-        <v>329.8850168761704</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="U43" t="n">
-        <v>329.8850168761704</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="V43" t="n">
-        <v>329.8850168761704</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="W43" t="n">
-        <v>40.46784683920976</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="X43" t="n">
-        <v>40.46784683920976</v>
+        <v>209.4040297671167</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.46784683920976</v>
+        <v>209.4040297671167</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1228.272049951853</v>
+        <v>1103.588324956934</v>
       </c>
       <c r="C44" t="n">
-        <v>1228.272049951853</v>
+        <v>734.6258080165219</v>
       </c>
       <c r="D44" t="n">
-        <v>870.0063513451025</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="E44" t="n">
-        <v>870.0063513451025</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="F44" t="n">
-        <v>459.0204465554949</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="G44" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H44" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I44" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J44" t="n">
-        <v>107.2572125339111</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K44" t="n">
-        <v>328.1019626009682</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L44" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M44" t="n">
         <v>1033.983090059323</v>
@@ -7672,28 +7672,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R44" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="S44" t="n">
-        <v>2023.392341960488</v>
+        <v>1931.377971238402</v>
       </c>
       <c r="T44" t="n">
-        <v>2023.392341960488</v>
+        <v>1710.165868918114</v>
       </c>
       <c r="U44" t="n">
-        <v>2023.392341960488</v>
+        <v>1456.356980227048</v>
       </c>
       <c r="V44" t="n">
-        <v>2023.392341960488</v>
+        <v>1456.356980227048</v>
       </c>
       <c r="W44" t="n">
-        <v>1991.877140188745</v>
+        <v>1103.588324956934</v>
       </c>
       <c r="X44" t="n">
-        <v>1618.411381927665</v>
+        <v>1103.588324956934</v>
       </c>
       <c r="Y44" t="n">
-        <v>1228.272049951853</v>
+        <v>1103.588324956934</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>918.2427329919128</v>
+        <v>456.2548981795966</v>
       </c>
       <c r="C45" t="n">
-        <v>743.7897037107858</v>
+        <v>281.8018688984696</v>
       </c>
       <c r="D45" t="n">
-        <v>594.8552940495346</v>
+        <v>132.8674592372183</v>
       </c>
       <c r="E45" t="n">
-        <v>435.6178390440791</v>
+        <v>132.8674592372183</v>
       </c>
       <c r="F45" t="n">
-        <v>289.0832810709641</v>
+        <v>132.8674592372183</v>
       </c>
       <c r="G45" t="n">
-        <v>150.8581367302983</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H45" t="n">
-        <v>42.37281574724</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I45" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J45" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100978</v>
       </c>
       <c r="K45" t="n">
-        <v>122.5224875632326</v>
+        <v>291.9427578142076</v>
       </c>
       <c r="L45" t="n">
-        <v>460.0977436204909</v>
+        <v>327.4379791865878</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0113666834374</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N45" t="n">
-        <v>1379.434009878921</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O45" t="n">
-        <v>1746.107559530962</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P45" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526584</v>
       </c>
       <c r="Q45" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R45" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S45" t="n">
-        <v>2023.392341960488</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T45" t="n">
-        <v>1823.243996922344</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U45" t="n">
-        <v>1823.243996922344</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V45" t="n">
-        <v>1588.091888690601</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W45" t="n">
-        <v>1333.8545319624</v>
+        <v>871.8666971500834</v>
       </c>
       <c r="X45" t="n">
-        <v>1126.003031756867</v>
+        <v>664.0151969445506</v>
       </c>
       <c r="Y45" t="n">
-        <v>918.2427329919128</v>
+        <v>456.2548981795966</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U46" t="n">
-        <v>498.0103482609705</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="V46" t="n">
-        <v>243.3258600550836</v>
+        <v>329.8850168761704</v>
       </c>
       <c r="W46" t="n">
         <v>40.46784683920976</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,16 +8780,16 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>315.8420502392111</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>166.6871829098017</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>399.2039605324505</v>
+        <v>354.6541654994895</v>
       </c>
       <c r="N15" t="n">
-        <v>336.3888653812139</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O15" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>142.6317767593719</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>399.2039605324505</v>
+        <v>274.9430030574977</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273547</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810002</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324505</v>
+        <v>274.9430030574977</v>
       </c>
       <c r="N21" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>142.9145225887215</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>93.33365090048261</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>454.2966649947129</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>38.37712982223464</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>354.7622114352961</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.0775256814014</v>
+        <v>158.9610011602124</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>147.3311825278412</v>
+        <v>193.8826057316799</v>
       </c>
       <c r="Q30" t="n">
         <v>76.0775256814014</v>
@@ -10430,7 +10430,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K33" t="n">
-        <v>139.885074104321</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>193.8826057316799</v>
       </c>
       <c r="Q33" t="n">
         <v>76.0775256814014</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>139.8850741043215</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>174.21102617701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>139.885074104321</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.0775256814014</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>79.53961213657041</v>
       </c>
       <c r="K42" t="n">
-        <v>139.8850741043215</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.0775256814014</v>
+        <v>158.9610011602124</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>79.53961213657041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>139.885074104321</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>65.70899713691563</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.0775256814014</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,22 +22555,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22634,16 +22634,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>101.8700346578107</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>99.1640485319564</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22758,7 +22758,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>374.8264583819999</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22852,7 +22852,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>22.38387554673815</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22919,13 +22919,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>67.40305691116353</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
@@ -23041,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>87.97908270722047</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>35.79252634103781</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23229,10 +23229,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23275,10 +23275,10 @@
         <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>111.7979302022012</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>286.22830965248</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,22 +23342,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>80.42463739923308</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>11.0299670297826</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421694</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>105.7738563699064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>163.6373884726767</v>
       </c>
       <c r="G14" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H14" t="n">
-        <v>94.79428962526615</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
         <v>205.0481221176458</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>110.0814249536982</v>
@@ -23576,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>89.40455181267224</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
         <v>111.5079271034444</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.91789605519537</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
         <v>170.2839726213331</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.1499631682117</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>153.551289182031</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>111.3918043887132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G17" t="n">
-        <v>139.005434824964</v>
+        <v>394.4028370282535</v>
       </c>
       <c r="H17" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
         <v>205.8118405263978</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>24.33565468795959</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
         <v>111.5079271034444</v>
@@ -23861,22 +23861,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
-        <v>98.73072773493631</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.6245447218583</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>111.3918043887132</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>304.6626701579562</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H20" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I20" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
         <v>205.8118405263978</v>
@@ -24028,10 +24028,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>289.5617233187461</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268741</v>
+        <v>25.21649875254737</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.8611009721718</v>
@@ -24107,13 +24107,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>163.484735553209</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>79.25920037028817</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8924352648517</v>
+        <v>261.7974729565039</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S23" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U23" t="n">
         <v>251.2707998041555</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>185.0263863480287</v>
+        <v>117.5471023190772</v>
       </c>
     </row>
     <row r="25">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>125.1840705329473</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.571272790944</v>
@@ -24420,13 +24420,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U25" t="n">
-        <v>119.8520582000379</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>16.3573118495205</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>138.4849468027564</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>138.0860305383101</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>47.33963672377526</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I27" t="n">
         <v>72.16022720352242</v>
@@ -24575,7 +24575,7 @@
         <v>162.3842949358346</v>
       </c>
       <c r="T27" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H28" t="n">
-        <v>52.93177613614681</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I28" t="n">
         <v>142.8287537878153</v>
@@ -24657,13 +24657,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2961362709901</v>
+        <v>119.8520582000379</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>216.951512949834</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>174.4037110746249</v>
+        <v>39.43724281779288</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S29" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U29" t="n">
         <v>251.2707998041555</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,13 +24761,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>96.59979181279928</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,19 +24809,19 @@
         <v>69.07521525435415</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.1468615877626</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>138.8607275440022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0.5042171532455768</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>51.01734149371097</v>
       </c>
       <c r="R31" t="n">
-        <v>158.4218578960072</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>216.7022572194656</v>
@@ -24894,13 +24894,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U31" t="n">
-        <v>119.8520582000379</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>47.30284029880028</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I32" t="n">
-        <v>174.4037110746249</v>
+        <v>85.40270731802902</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,25 +24998,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>135.95383821364</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>66.25325743793425</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.571272790944</v>
+        <v>155.0746800711137</v>
       </c>
       <c r="H34" t="n">
         <v>158.4955995708086</v>
@@ -25131,7 +25131,7 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.91371321554169</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.144246697429</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>138.7882992311169</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H35" t="n">
         <v>329.8924352648517</v>
       </c>
       <c r="I35" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>91.09422701486457</v>
       </c>
       <c r="S35" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2707998041555</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>164.31448821606</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>48.56217649089595</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>167.571272790944</v>
       </c>
       <c r="H37" t="n">
-        <v>158.4955995708086</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>142.8287537878153</v>
@@ -25362,19 +25362,19 @@
         <v>158.4218578960072</v>
       </c>
       <c r="S37" t="n">
-        <v>216.7022572194656</v>
+        <v>70.84625340094337</v>
       </c>
       <c r="T37" t="n">
         <v>226.1522977307185</v>
       </c>
       <c r="U37" t="n">
-        <v>119.8520582000379</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8924352648517</v>
+        <v>26.33779341375401</v>
       </c>
       <c r="I38" t="n">
         <v>174.4037110746249</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.09422701486457</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>187.6986308346051</v>
@@ -25447,16 +25447,16 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U38" t="n">
-        <v>54.85581089179766</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>53.5935961193554</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>141.3454855579718</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>111.5128010759213</v>
       </c>
       <c r="I40" t="n">
         <v>142.8287537878153</v>
@@ -25602,13 +25602,13 @@
         <v>216.7022572194656</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1522977307185</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2961362709901</v>
       </c>
       <c r="V40" t="n">
-        <v>125.2374392780375</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>390.1445282445603</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>124.8249386373383</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2.232375442539393</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1468615877626</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>201.0449249825116</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25809,7 +25809,7 @@
         <v>142.8287537878153</v>
       </c>
       <c r="J43" t="n">
-        <v>63.68592579338138</v>
+        <v>63.68592579338139</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>51.01734149371097</v>
       </c>
       <c r="R43" t="n">
-        <v>158.4218578960072</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.25817914851339</v>
+        <v>89.40385980655751</v>
       </c>
       <c r="T43" t="n">
         <v>226.1522977307185</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,16 +25867,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>256.2374448488911</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I44" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>318.0409189633872</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>45.36727662323062</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27430798457249</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2961362709901</v>
+        <v>119.852058200038</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>85.69356525287591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423769.2598999697</v>
+        <v>423769.2598999696</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613116.2662212622</v>
+        <v>613116.2662212619</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613116.2662212619</v>
+        <v>613116.266221262</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>613116.266221262</v>
+        <v>613116.2662212622</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>613116.2662212622</v>
+        <v>613116.266221262</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>613116.2662212619</v>
+        <v>613116.2662212622</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>613116.2662212622</v>
+        <v>613116.266221262</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613116.2662212618</v>
+        <v>613116.2662212622</v>
       </c>
     </row>
   </sheetData>
@@ -26334,28 +26334,28 @@
         <v>177181.8331056511</v>
       </c>
       <c r="I2" t="n">
+        <v>241782.0775782847</v>
+      </c>
+      <c r="J2" t="n">
         <v>241782.0775782848</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>241782.0775782847</v>
       </c>
-      <c r="K2" t="n">
-        <v>241782.0775782848</v>
-      </c>
       <c r="L2" t="n">
-        <v>241782.0775782848</v>
+        <v>241782.0775782847</v>
       </c>
       <c r="M2" t="n">
         <v>241782.0775782847</v>
       </c>
       <c r="N2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="O2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
       <c r="P2" t="n">
-        <v>241782.0775782847</v>
+        <v>241782.0775782848</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923561</v>
+        <v>38628.8811292356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>209917.1901890308</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213641</v>
+        <v>8757.582995213634</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>9044.250773184249</v>
       </c>
       <c r="P4" t="n">
-        <v>9044.250773184249</v>
+        <v>9044.250773184247</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16344.85054664009</v>
+        <v>27341.06010467657</v>
       </c>
       <c r="C6" t="n">
-        <v>97114.2820781878</v>
+        <v>108110.4916362243</v>
       </c>
       <c r="D6" t="n">
-        <v>97114.2820781878</v>
+        <v>108110.4916362242</v>
       </c>
       <c r="E6" t="n">
-        <v>100733.0266895273</v>
+        <v>111233.2840217194</v>
       </c>
       <c r="F6" t="n">
-        <v>139361.9078187629</v>
+        <v>149862.165150955</v>
       </c>
       <c r="G6" t="n">
-        <v>139361.9078187629</v>
+        <v>149862.165150955</v>
       </c>
       <c r="H6" t="n">
-        <v>139361.9078187629</v>
+        <v>149862.165150955</v>
       </c>
       <c r="I6" t="n">
-        <v>-21445.73819925058</v>
+        <v>-13852.49186832711</v>
       </c>
       <c r="J6" t="n">
-        <v>125411.509390674</v>
+        <v>133004.7557215976</v>
       </c>
       <c r="K6" t="n">
-        <v>188471.4519897802</v>
+        <v>196064.6983207037</v>
       </c>
       <c r="L6" t="n">
-        <v>188471.4519897802</v>
+        <v>196064.6983207037</v>
       </c>
       <c r="M6" t="n">
-        <v>179713.8689945665</v>
+        <v>187307.1153254901</v>
       </c>
       <c r="N6" t="n">
-        <v>188471.4519897802</v>
+        <v>196064.6983207038</v>
       </c>
       <c r="O6" t="n">
-        <v>188471.4519897802</v>
+        <v>196064.6983207038</v>
       </c>
       <c r="P6" t="n">
-        <v>188471.4519897802</v>
+        <v>196064.6983207038</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912527</v>
       </c>
       <c r="F3" t="n">
         <v>35.02126071912529</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912531</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912531</v>
       </c>
       <c r="I3" t="n">
         <v>232.7463692581684</v>
@@ -26776,7 +26776,7 @@
         <v>232.7463692581684</v>
       </c>
       <c r="O3" t="n">
-        <v>232.7463692581684</v>
+        <v>232.7463692581683</v>
       </c>
       <c r="P3" t="n">
         <v>232.7463692581683</v>
@@ -26810,25 +26810,25 @@
         <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
-        <v>505.848085490122</v>
+        <v>505.8480854901219</v>
       </c>
       <c r="J4" t="n">
         <v>505.8480854901219</v>
       </c>
       <c r="K4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="L4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="M4" t="n">
         <v>505.848085490122</v>
       </c>
       <c r="N4" t="n">
+        <v>505.848085490122</v>
+      </c>
+      <c r="O4" t="n">
         <v>505.8480854901219</v>
-      </c>
-      <c r="O4" t="n">
-        <v>505.848085490122</v>
       </c>
       <c r="P4" t="n">
         <v>505.8480854901219</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>229.6915717877666</v>
+        <v>229.6915717877665</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.1422248246964</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>1.441855221466298</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760112</v>
+        <v>5.42776745276011</v>
       </c>
       <c r="J11" t="n">
         <v>11.9492893546125</v>
@@ -31767,31 +31767,31 @@
         <v>17.90888720884596</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470699</v>
+        <v>22.21755819470698</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677229</v>
+        <v>24.72131435677228</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840331</v>
+        <v>25.1213310684033</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081214</v>
+        <v>23.72136057081213</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411503</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796961</v>
+        <v>15.2036268079696</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870368</v>
+        <v>8.843836255870364</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847508</v>
+        <v>3.208229059847507</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626971</v>
+        <v>0.6163037941626969</v>
       </c>
       <c r="U11" t="n">
         <v>0.01126311902524631</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132609</v>
+        <v>0.07532874947132606</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520179</v>
+        <v>0.7275171330520176</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727675</v>
+        <v>2.593555628727674</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779981</v>
+        <v>7.116914878779978</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335882</v>
       </c>
       <c r="L12" t="n">
         <v>16.35591992358771</v>
       </c>
       <c r="M12" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192327</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833405</v>
       </c>
       <c r="O12" t="n">
         <v>17.92262575689046</v>
@@ -31861,19 +31861,19 @@
         <v>14.38448725650261</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164363</v>
+        <v>9.615648792164359</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263564</v>
+        <v>4.676990252263562</v>
       </c>
       <c r="S12" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504674</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497747</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008298</v>
+        <v>0.004955838781008295</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006198</v>
+        <v>0.06315309310006197</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623697</v>
+        <v>0.5614884095623695</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227319</v>
+        <v>1.899185745227318</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174381</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170836</v>
+        <v>7.337241180170833</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894671</v>
+        <v>9.389142586894668</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948806</v>
+        <v>9.899534402948802</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394038</v>
+        <v>9.664145601394035</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179673</v>
+        <v>8.92640265017967</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938403</v>
+        <v>7.6380795509384</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587918</v>
+        <v>5.288210368587916</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390059</v>
+        <v>2.839592713390058</v>
       </c>
       <c r="S13" t="n">
         <v>1.100586177025625</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457193</v>
+        <v>0.2698359432457192</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094294</v>
+        <v>0.003444714169094293</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>1.441855221466299</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760116</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461251</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L17" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M17" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677231</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840333</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081216</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411505</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796962</v>
       </c>
       <c r="R17" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870373</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847509</v>
+        <v>3.20822905984751</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626975</v>
       </c>
       <c r="U17" t="n">
         <v>0.01126311902524632</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132613</v>
       </c>
       <c r="H18" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520184</v>
       </c>
       <c r="I18" t="n">
         <v>2.593555628727676</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779985</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L18" t="n">
         <v>16.35591992358772</v>
       </c>
       <c r="M18" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192329</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833407</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689048</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650262</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164368</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263566</v>
       </c>
       <c r="S18" t="n">
         <v>1.399198482504675</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.303627722649775</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.0049558387810083</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006202</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.56148840956237</v>
       </c>
       <c r="I19" t="n">
         <v>1.89918574522732</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174385</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170841</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894678</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948813</v>
       </c>
       <c r="N19" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394043</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179678</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938408</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587921</v>
       </c>
       <c r="R19" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390061</v>
       </c>
       <c r="S19" t="n">
         <v>1.100586177025626</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457195</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094296</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>1.441855221466299</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760116</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461251</v>
       </c>
       <c r="K20" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L20" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M20" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677231</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840333</v>
       </c>
       <c r="O20" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081216</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411505</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796962</v>
       </c>
       <c r="R20" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870373</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847509</v>
+        <v>3.20822905984751</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626975</v>
       </c>
       <c r="U20" t="n">
         <v>0.01126311902524632</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132613</v>
       </c>
       <c r="H21" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520184</v>
       </c>
       <c r="I21" t="n">
         <v>2.593555628727676</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779985</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L21" t="n">
         <v>16.35591992358772</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192329</v>
       </c>
       <c r="N21" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833407</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689048</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650262</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164368</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263566</v>
       </c>
       <c r="S21" t="n">
         <v>1.399198482504675</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.303627722649775</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.0049558387810083</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006202</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.56148840956237</v>
       </c>
       <c r="I22" t="n">
         <v>1.89918574522732</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174385</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170841</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894678</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948813</v>
       </c>
       <c r="N22" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394043</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179678</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938408</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587921</v>
       </c>
       <c r="R22" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390061</v>
       </c>
       <c r="S22" t="n">
         <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457195</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094296</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9356637960127364</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H41" t="n">
-        <v>9.58236685091544</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I41" t="n">
         <v>36.07217849578105</v>
       </c>
       <c r="J41" t="n">
-        <v>79.41329510683606</v>
+        <v>79.41329510683605</v>
       </c>
       <c r="K41" t="n">
         <v>119.0199435920552</v>
@@ -34164,7 +34164,7 @@
         <v>4.095868267045756</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0748531036810189</v>
+        <v>0.07485310368101888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.500624265951532</v>
+        <v>0.5006242659515319</v>
       </c>
       <c r="H42" t="n">
-        <v>4.834976463268744</v>
+        <v>4.834976463268743</v>
       </c>
       <c r="I42" t="n">
         <v>17.23640564789266</v>
@@ -34231,10 +34231,10 @@
         <v>95.59727759209561</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.90424840462012</v>
+        <v>63.90424840462011</v>
       </c>
       <c r="R42" t="n">
-        <v>31.08261889828899</v>
+        <v>31.08261889828898</v>
       </c>
       <c r="S42" t="n">
         <v>9.298876168003229</v>
@@ -34243,7 +34243,7 @@
         <v>2.017867107059025</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03293580697049554</v>
+        <v>0.03293580697049553</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,34 +34280,34 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4197065675147298</v>
+        <v>0.4197065675147297</v>
       </c>
       <c r="H43" t="n">
-        <v>3.731572936630964</v>
+        <v>3.731572936630963</v>
       </c>
       <c r="I43" t="n">
         <v>12.62172113944297</v>
       </c>
       <c r="J43" t="n">
-        <v>29.6732543232914</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K43" t="n">
         <v>48.76227211671132</v>
       </c>
       <c r="L43" t="n">
-        <v>62.39892004668993</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M43" t="n">
-        <v>65.79091221505895</v>
+        <v>65.79091221505894</v>
       </c>
       <c r="N43" t="n">
-        <v>64.2265513725041</v>
+        <v>64.22655137250409</v>
       </c>
       <c r="O43" t="n">
-        <v>59.32361556108201</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P43" t="n">
-        <v>50.76160158378148</v>
+        <v>50.76160158378147</v>
       </c>
       <c r="Q43" t="n">
         <v>35.14470175798342</v>
@@ -34316,7 +34316,7 @@
         <v>18.8715334811623</v>
       </c>
       <c r="S43" t="n">
-        <v>7.314340817506698</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T43" t="n">
         <v>1.793291697562936</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>121.9644487350301</v>
       </c>
       <c r="L11" t="n">
         <v>204.1123577751702</v>
@@ -35421,7 +35421,7 @@
         <v>243.8886146223321</v>
       </c>
       <c r="N11" t="n">
-        <v>233.0551918837966</v>
+        <v>233.0551918837965</v>
       </c>
       <c r="O11" t="n">
         <v>174.4233304118708</v>
@@ -35430,7 +35430,7 @@
         <v>110.8113448503281</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424807</v>
+        <v>5.2129275934248</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522124</v>
+        <v>6.370323552522121</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315784</v>
@@ -35500,16 +35500,16 @@
         <v>276.1565137023554</v>
       </c>
       <c r="N12" t="n">
-        <v>204.0920904142118</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891755</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821095</v>
+        <v>47.09726275197401</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>36.97916784721081</v>
+        <v>36.9791678472108</v>
       </c>
       <c r="M13" t="n">
         <v>49.48341136478939</v>
@@ -35582,10 +35582,10 @@
         <v>53.79631798062263</v>
       </c>
       <c r="O13" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421934</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831891</v>
+        <v>4.916638815831888</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1565137023554</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6389055562147</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P15" t="n">
         <v>198.8728484821095</v>
@@ -35901,10 +35901,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424816</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522128</v>
       </c>
       <c r="K18" t="n">
-        <v>16.95427887837176</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L18" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023554</v>
+        <v>151.8955562274026</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>269.1887005891755</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M19" t="n">
         <v>49.4834113647894</v>
@@ -36056,10 +36056,10 @@
         <v>53.79631798062263</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831896</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424816</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.370323552522128</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L21" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023554</v>
+        <v>151.8955562274026</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>269.1887005891755</v>
       </c>
       <c r="P21" t="n">
-        <v>23.3246024308939</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>79.71116244199195</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M22" t="n">
         <v>49.4834113647894</v>
@@ -36293,10 +36293,10 @@
         <v>53.79631798062263</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831896</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>46.55142320383842</v>
       </c>
       <c r="K24" t="n">
-        <v>207.4636383870685</v>
+        <v>36.33205227497252</v>
       </c>
       <c r="L24" t="n">
         <v>340.9851071285437</v>
@@ -36448,16 +36448,16 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N24" t="n">
-        <v>453.1589807476072</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O24" t="n">
         <v>370.3773228808498</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q24" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>340.9851071285437</v>
@@ -36685,7 +36685,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N27" t="n">
-        <v>353.6245271881904</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O27" t="n">
         <v>370.3773228808498</v>
@@ -36694,7 +36694,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>82.88347547881098</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>207.4636383870685</v>
@@ -36928,7 +36928,7 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P30" t="n">
-        <v>108.9540527056066</v>
+        <v>155.5054759094453</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>82.88347547881092</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L33" t="n">
         <v>340.9851071285437</v>
@@ -37165,7 +37165,7 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P33" t="n">
-        <v>280.0856388177025</v>
+        <v>155.5054759094453</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>207.4636383870685</v>
+        <v>82.88347547881139</v>
       </c>
       <c r="L36" t="n">
         <v>340.9851071285437</v>
@@ -37396,7 +37396,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N36" t="n">
-        <v>173.0733419299043</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O36" t="n">
         <v>370.3773228808498</v>
@@ -37405,7 +37405,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q36" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88347547881092</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L39" t="n">
         <v>340.9851071285437</v>
@@ -37633,7 +37633,7 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N39" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O39" t="n">
         <v>370.3773228808498</v>
@@ -37642,7 +37642,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>67.46400575222354</v>
+        <v>67.46400575222353</v>
       </c>
       <c r="K41" t="n">
         <v>223.0755051182394</v>
       </c>
       <c r="L41" t="n">
-        <v>329.5495640697433</v>
+        <v>329.5495640697432</v>
       </c>
       <c r="M41" t="n">
         <v>383.4616757871813</v>
       </c>
       <c r="N41" t="n">
-        <v>374.886691097436</v>
+        <v>374.8866910974359</v>
       </c>
       <c r="O41" t="n">
         <v>308.3507932514997</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88347547881139</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>340.9851071285437</v>
@@ -37879,7 +37879,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>82.88347547881098</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.49278029082847</v>
+        <v>26.49278029082846</v>
       </c>
       <c r="L43" t="n">
-        <v>89.98894530700608</v>
+        <v>89.98894530700605</v>
       </c>
       <c r="M43" t="n">
         <v>105.3747891768995</v>
@@ -37952,10 +37952,10 @@
         <v>108.3587237517327</v>
       </c>
       <c r="O43" t="n">
-        <v>83.90874347512168</v>
+        <v>83.90874347512167</v>
       </c>
       <c r="P43" t="n">
-        <v>48.04016084867497</v>
+        <v>48.04016084867496</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.05046453712565</v>
+        <v>91.05046453712568</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88347547881092</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L45" t="n">
-        <v>340.9851071285437</v>
+        <v>35.85375896200017</v>
       </c>
       <c r="M45" t="n">
         <v>450.4178010736833</v>
@@ -38116,7 +38116,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
